--- a/bot/resources/agendamentos.xlsx
+++ b/bot/resources/agendamentos.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45806</v>
+        <v>45812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
